--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,13 +65,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -137,13 +137,13 @@
     <t>L01FX05</t>
   </si>
   <si>
-    <t>Brentuximab vedotin (Adcetris)</t>
+    <t>Brentuximab Vedotin (Adcetris)</t>
   </si>
   <si>
     <t>L01FX14</t>
   </si>
   <si>
-    <t>Polatuzumab incl evt. Rituximab</t>
+    <t>Polatuzumab Incl evt. Rituximab</t>
   </si>
   <si>
     <t>L01FF</t>
@@ -158,7 +158,13 @@
     <t>glofitamab</t>
   </si>
   <si>
-    <t>Glofitamabel Epcoritamab Incl evt. Rituximab</t>
+    <t>Bispecifikke el Epcoritamab Incl evt. Rituximab</t>
+  </si>
+  <si>
+    <t>Polatuzumab</t>
+  </si>
+  <si>
+    <t>Bispecifikke + Polatuzumab Incl evt. Rituximab</t>
   </si>
   <si>
     <t>https://kip.rkkp.dk/fhir/CodeSystem/TreatmentUnspecified</t>
@@ -574,7 +580,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -602,18 +608,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>48</v>
+      <c r="B5" t="s" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -137,13 +137,13 @@
     <t>L01FX05</t>
   </si>
   <si>
-    <t>Brentuximab Vedotin (Adcetris)</t>
+    <t>Brentuximab vedotin (Adcetris)</t>
   </si>
   <si>
     <t>L01FX14</t>
   </si>
   <si>
-    <t>Polatuzumab Incl evt. Rituximab</t>
+    <t>Polatuzumab incl evt. Rituximab</t>
   </si>
   <si>
     <t>L01FF</t>
@@ -158,13 +158,7 @@
     <t>glofitamab</t>
   </si>
   <si>
-    <t>Bispecifikke el Epcoritamab Incl evt. Rituximab</t>
-  </si>
-  <si>
-    <t>Polatuzumab</t>
-  </si>
-  <si>
-    <t>Bispecifikke + Polatuzumab Incl evt. Rituximab</t>
+    <t>Glofitamabel Epcoritamab Incl evt. Rituximab</t>
   </si>
   <si>
     <t>https://kip.rkkp.dk/fhir/CodeSystem/TreatmentUnspecified</t>
@@ -580,7 +574,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,26 +602,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-Immunoterapi.xlsx
+++ b/fhir/ValueSet-Immunoterapi.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
